--- a/5th Week/Data Dictionary 21 Template.xlsx
+++ b/5th Week/Data Dictionary 21 Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FAIR\OneDrive - Thammasat University\เดสก์ท็อป\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bachelor Degree @TU\TU\Jr\DSI 310 Data Processing\5 weeks scraping Project\5th Week\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B23713-85B2-48B3-82D5-6285BE4EEAF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6B975C-61CE-4D90-BA7E-5AD9BF44FF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Business Details</t>
   </si>
@@ -28,13 +28,7 @@
     <t xml:space="preserve">Title: </t>
   </si>
   <si>
-    <t>ข้อมูลห้องพักจาก Airbnb</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description: </t>
-  </si>
-  <si>
-    <t>ข้อมูลห้องพักส่วนตัวในจังหวัดกรุงเทพมหานครจากเว็บไซต์ Airbnb โดยมีข้อมูลชื่อที่พัก, ราคาต่อคืน, ราคารวม, เรทติ้งเฉลี่ยจากผู้ใช้งาน, จำนวนผู้ใช้งานที่มารีวิวทั้งหมด</t>
   </si>
   <si>
     <t>Data Qaulity:</t>
@@ -50,9 +44,6 @@
   </si>
   <si>
     <t>Collecting Method:</t>
-  </si>
-  <si>
-    <t>Web Scraping Source: https://th.airbnb.com/s/BTS-~-PHAYATHAI--Samsen-Nai--Phaya-Thai--Bangkok--Thailand/homes?adults=2&amp;refinement_paths%5B%5D=%2Fhomes&amp;tab_id=home_tab&amp;flexible_trip_lengths%5B%5D=one_week&amp;price_filter_input_type=0&amp;price_filter_num_nights=4&amp;search_type=filter_change&amp;room_types%5B%5D=Private%20room&amp;l2_property_type_ids%5B%5D=1&amp;l2_property_type_ids%5B%5D=3&amp;l2_property_type_ids%5B%5D=4&amp;amenities%5B%5D=4&amp;amenities%5B%5D=5&amp;date_picker_type=calendar&amp;source=structured_search_input_header&amp;min_bedrooms=1&amp;min_beds=1&amp;min_bathrooms=1&amp;superhost=true&amp;checkin=2023-04-12&amp;checkout=2023-04-16&amp;query=BTS%20-%20PHAYATHAI%2C%20Samsen%20Nai%2C%20Phaya%20Thai%2C%20Bangkok&amp;place_id=ChIJN6hNkx2c4jARyNY0OlyXh84&amp;ne_lat=13.78177222948684&amp;ne_lng=100.57352989270504&amp;sw_lat=13.746814142447073&amp;sw_lng=100.52343337911799&amp;zoom=14&amp;search_by_map=true&amp;pagination_search=true</t>
   </si>
   <si>
     <t xml:space="preserve">Type: </t>
@@ -97,43 +88,40 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>ชื่อที่พัก</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>Rating</t>
   </si>
   <si>
-    <t>เรทติ้งเฉลี่ยจากผู้ใช้งาน</t>
+    <t>Object</t>
   </si>
   <si>
-    <t>จำนวนผู้ใช้งานที่มารีวิว</t>
+    <t>https://github.com/Fairpart/Scraping-Data-G-21/tree/master/5th%20Week</t>
   </si>
   <si>
-    <t>ราคาที่พักต่อคืน (บาท)</t>
+    <t>Web Scraping by Selenium from : https://www.wongnai.com/rankings?category=3001&amp;region=170</t>
   </si>
   <si>
-    <t>ราคารวม (บาท)</t>
+    <t>Reviews</t>
   </si>
   <si>
-    <t>https://github.com/Fairpart/Scraping-Data-G-21</t>
+    <t>Hotel</t>
   </si>
   <si>
-    <t>Price_a_Night</t>
+    <t>คะแนนเฉลี่ยของโรงแรม จากเว็บไซต์</t>
   </si>
   <si>
-    <t>Total_Price</t>
+    <t>จำนวนรีวิว ของแต่ละโรงแรม</t>
   </si>
   <si>
-    <t>No_Reviewer</t>
+    <t>ชื่อของโรงแรม</t>
   </si>
   <si>
-    <t>Object</t>
+    <t>ข้อมูลโรงแรม Top 20 จากเว็บ wongnai</t>
+  </si>
+  <si>
+    <t>รายชื่อ และ คะแนนเฉลี่ย โรงแรมที่ได้รับความนิยมในเขตราชเทวี 20อันดับ โดยวงใน</t>
   </si>
 </sst>
 </file>
@@ -287,7 +275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -311,17 +299,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -337,6 +316,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,16 +551,16 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:F6"/>
+      <selection activeCell="B4" sqref="B4:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="17" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="25.36328125" style="17" customWidth="1"/>
-    <col min="5" max="6" width="9.26953125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="18" style="14" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="36.7265625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="21.7265625" style="14" customWidth="1"/>
     <col min="7" max="26" width="21.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,13 +598,13 @@
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>2</v>
+      <c r="B2" s="15" t="s">
+        <v>32</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -637,15 +628,15 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
+      <c r="B3" s="15" t="s">
+        <v>33</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -669,15 +660,15 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>6</v>
+      <c r="B4" s="15" t="s">
+        <v>4</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -701,13 +692,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8"/>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
+      <c r="B5" s="15" t="s">
+        <v>5</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -731,13 +722,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
+      <c r="B6" s="15" t="s">
+        <v>6</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -761,15 +752,15 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
+      <c r="B7" s="15" t="s">
+        <v>26</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -793,15 +784,15 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>12</v>
+      <c r="B8" s="15" t="s">
+        <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -824,16 +815,16 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>13</v>
+      <c r="A9" s="9" t="s">
+        <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>14</v>
+      <c r="B9" s="17" t="s">
+        <v>11</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -857,15 +848,15 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="15">
         <v>29</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -889,15 +880,15 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
-      <c r="B11" s="9">
-        <v>959</v>
+      <c r="B11" s="15">
+        <v>1003</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -920,16 +911,16 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>17</v>
+      <c r="A12" s="9" t="s">
+        <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>33</v>
+      <c r="B12" s="16" t="s">
+        <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -952,8 +943,8 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>18</v>
+      <c r="A13" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -983,22 +974,22 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1022,22 +1013,22 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
-        <v>25</v>
+      <c r="A15" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>25</v>
+      <c r="B15" s="11" t="s">
+        <v>23</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>37</v>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>26</v>
+      <c r="D15" s="11" t="s">
+        <v>29</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>27</v>
+      <c r="E15" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1060,22 +1051,22 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="14" t="s">
+      <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="B16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="12"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1098,22 +1089,22 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
-        <v>35</v>
+      <c r="A17" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>35</v>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>37</v>
+      <c r="C17" s="11" t="s">
+        <v>24</v>
       </c>
-      <c r="D17" s="14" t="s">
-        <v>32</v>
+      <c r="D17" s="11" t="s">
+        <v>31</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>27</v>
+      <c r="E17" s="18" t="s">
+        <v>22</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1136,22 +1127,12 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="16"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1174,22 +1155,12 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="14"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
